--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_09_beg.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_09_beg.xlsx
@@ -1128,7 +1128,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Capone"]   Listen up, once the so-called "boss" opens fire, that's the official announcement of the end of your affiliation with the Gambino Family. Don't go easy on 'em.
+    <t xml:space="preserve">[name="Capone"]   Listen up, once the so-called 'boss' opens fire, that's the official announcement of the end of your affiliation with the Gambino Family. Don't go easy on 'em.
 </t>
   </si>
   <si>
@@ -1312,7 +1312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rat King"]   Put down your weapons, kneel before me, and your "Family" will have at least some chance to survive.
+    <t xml:space="preserve">[name="Rat King"]   Put down your weapons, kneel before me, and your 'Family' will have at least some chance to survive.
 </t>
   </si>
   <si>
@@ -1348,7 +1348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rat King"]   Look around you at your companions. This city has bled so much already. I really don't want to see "Family" killing one another on the program.
+    <t xml:space="preserve">[name="Rat King"]   Look around you at your companions. This city has bled so much already. I really don't want to see 'Family' killing one another on the program.
 </t>
   </si>
   <si>
@@ -1424,7 +1424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rat King"]   "Your Family."
+    <t xml:space="preserve">[name="Rat King"]   'Your Family.'
 </t>
   </si>
   <si>
@@ -1544,11 +1544,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Capone"]   That's because I too am "Sicilian."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Capone"]   Or I guess I should ask if you really thought you could wipe out one of Siracusa's "Families" and get away with it?
+    <t xml:space="preserve">[name="Capone"]   That's because I too am 'Sicilian.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Capone"]   Or I guess I should ask if you really thought you could wipe out one of Siracusa's 'Families' and get away with it?
 </t>
   </si>
   <si>
